--- a/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
+++ b/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
@@ -28397,9 +28397,10 @@
         <f>F4*(A16^E4)+F5*(A16^E5)+F6*(A16^E6)+F7*(A16^E7)+F8*(A16^E8)+F9*(A16^E9)+F10*(A16^E10)+F11*(A16^E11)+F12*(A16^E12)+F13*(A16^E13)+F14</f>
         <v/>
       </c>
-      <c r="E16">
-        <f>MAX(C1:C596)</f>
-        <v/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>yの最大値</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -28411,6 +28412,10 @@
       </c>
       <c r="C17">
         <f>F4*(A17^E4)+F5*(A17^E5)+F6*(A17^E6)+F7*(A17^E7)+F8*(A17^E8)+F9*(A17^E9)+F10*(A17^E10)+F11*(A17^E11)+F12*(A17^E12)+F13*(A17^E13)+F14</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>MAX(C1:C596)</f>
         <v/>
       </c>
     </row>

--- a/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
+++ b/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
@@ -28402,6 +28402,11 @@
           <t>yの最大値</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Peak To Peak</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -28416,6 +28421,10 @@
       </c>
       <c r="E17">
         <f>MAX(C1:C596)</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>ABS(MAX(C1:C596) - MIN(C1:C596))</f>
         <v/>
       </c>
     </row>

--- a/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
+++ b/test/ALL0046/F0046CH1.xlsx_TemporaryData.xlsx
@@ -28404,7 +28404,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Peak To Peak</t>
+          <t>ピーク-ピーク値</t>
         </is>
       </c>
     </row>
